--- a/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Projects\Social-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15" s="5">
         <v>5</v>
@@ -993,7 +993,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D30" s="5">
         <v>10</v>
